--- a/lowe/edd/data/SALI$HWS.xlsx
+++ b/lowe/edd/data/SALI$HWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1427,14 +1427,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH61"/>
+  <dimension ref="A1:JI61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1444,12 +1444,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1477,12 +1477,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1495,7 +1495,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2297,11 +2297,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3102,10 +3105,13 @@
         <v>228700</v>
       </c>
       <c r="JH9" s="11">
-        <v>224200</v>
+        <v>227100</v>
+      </c>
+      <c r="JI9" s="11">
+        <v>225400</v>
       </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3906,10 +3912,13 @@
         <v>213000</v>
       </c>
       <c r="JH10" s="11">
-        <v>209400</v>
+        <v>212500</v>
+      </c>
+      <c r="JI10" s="11">
+        <v>212600</v>
       </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4710,10 +4719,13 @@
         <v>15700</v>
       </c>
       <c r="JH11" s="11">
-        <v>14800</v>
+        <v>14600</v>
+      </c>
+      <c r="JI11" s="11">
+        <v>12800</v>
       </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5514,10 +5526,13 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="JH12" s="12">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="JI12" s="12">
+        <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6318,10 +6333,13 @@
         <v>210100</v>
       </c>
       <c r="JH13" s="11">
-        <v>207600</v>
+        <v>211300</v>
+      </c>
+      <c r="JI13" s="11">
+        <v>209900</v>
       </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7122,10 +7140,13 @@
         <v>74700</v>
       </c>
       <c r="JH14" s="11">
-        <v>70700</v>
+        <v>73600</v>
+      </c>
+      <c r="JI14" s="11">
+        <v>71800</v>
       </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7926,10 +7947,13 @@
         <v>135400</v>
       </c>
       <c r="JH15" s="11">
-        <v>136900</v>
+        <v>137700</v>
+      </c>
+      <c r="JI15" s="11">
+        <v>138100</v>
       </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8730,10 +8754,13 @@
         <v>103300</v>
       </c>
       <c r="JH16" s="11">
-        <v>104500</v>
+        <v>105300</v>
+      </c>
+      <c r="JI16" s="11">
+        <v>104900</v>
       </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9536,8 +9563,11 @@
       <c r="JH17" s="11">
         <v>11700</v>
       </c>
+      <c r="JI17" s="11">
+        <v>11700</v>
+      </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10340,8 +10370,11 @@
       <c r="JH18" s="11">
         <v>7300</v>
       </c>
+      <c r="JI18" s="11">
+        <v>7100</v>
+      </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11144,8 +11177,11 @@
       <c r="JH19" s="11">
         <v>300</v>
       </c>
+      <c r="JI19" s="11">
+        <v>300</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -11948,8 +11984,11 @@
       <c r="JH20" s="11">
         <v>7000</v>
       </c>
+      <c r="JI20" s="11">
+        <v>6800</v>
+      </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -12752,8 +12791,11 @@
       <c r="JH21" s="11">
         <v>4400</v>
       </c>
+      <c r="JI21" s="11">
+        <v>4600</v>
+      </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>18</v>
       </c>
@@ -13556,8 +13598,11 @@
       <c r="JH22" s="11">
         <v>3300</v>
       </c>
+      <c r="JI22" s="11">
+        <v>3300</v>
+      </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -14358,10 +14403,13 @@
         <v>123900</v>
       </c>
       <c r="JH23" s="11">
-        <v>125200</v>
+        <v>126000</v>
+      </c>
+      <c r="JI23" s="11">
+        <v>126400</v>
       </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -15162,10 +15210,13 @@
         <v>91800</v>
       </c>
       <c r="JH24" s="11">
-        <v>92800</v>
+        <v>93600</v>
+      </c>
+      <c r="JI24" s="11">
+        <v>93200</v>
       </c>
     </row>
-    <row r="25" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -15966,10 +16017,13 @@
         <v>25200</v>
       </c>
       <c r="JH25" s="11">
-        <v>25100</v>
+        <v>25600</v>
+      </c>
+      <c r="JI25" s="11">
+        <v>25000</v>
       </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -16772,8 +16826,11 @@
       <c r="JH26" s="11">
         <v>5600</v>
       </c>
+      <c r="JI26" s="11">
+        <v>5600</v>
+      </c>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -17574,10 +17631,13 @@
         <v>15700</v>
       </c>
       <c r="JH27" s="11">
-        <v>15600</v>
+        <v>16100</v>
+      </c>
+      <c r="JI27" s="11">
+        <v>15500</v>
       </c>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -18380,8 +18440,11 @@
       <c r="JH28" s="11">
         <v>4100</v>
       </c>
+      <c r="JI28" s="11">
+        <v>4100</v>
+      </c>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -19184,8 +19247,11 @@
       <c r="JH29" s="11">
         <v>3900</v>
       </c>
+      <c r="JI29" s="11">
+        <v>3900</v>
+      </c>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -19988,8 +20054,11 @@
       <c r="JH30" s="11">
         <v>900</v>
       </c>
+      <c r="JI30" s="11">
+        <v>900</v>
+      </c>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -20792,8 +20861,11 @@
       <c r="JH31" s="11">
         <v>4000</v>
       </c>
+      <c r="JI31" s="11">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -21596,8 +21668,11 @@
       <c r="JH32" s="11">
         <v>15200</v>
       </c>
+      <c r="JI32" s="11">
+        <v>15500</v>
+      </c>
     </row>
-    <row r="33" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -22400,8 +22475,11 @@
       <c r="JH33" s="11">
         <v>20100</v>
       </c>
+      <c r="JI33" s="11">
+        <v>20300</v>
+      </c>
     </row>
-    <row r="34" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -23204,8 +23282,11 @@
       <c r="JH34" s="11">
         <v>17900</v>
       </c>
+      <c r="JI34" s="11">
+        <v>18000</v>
+      </c>
     </row>
-    <row r="35" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -24006,10 +24087,13 @@
         <v>21800</v>
       </c>
       <c r="JH35" s="11">
-        <v>22900</v>
+        <v>23200</v>
+      </c>
+      <c r="JI35" s="11">
+        <v>23000</v>
       </c>
     </row>
-    <row r="36" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>36</v>
       </c>
@@ -24810,10 +24894,13 @@
         <v>20100</v>
       </c>
       <c r="JH36" s="11">
-        <v>21100</v>
+        <v>21400</v>
+      </c>
+      <c r="JI36" s="11">
+        <v>21200</v>
       </c>
     </row>
-    <row r="37" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>37</v>
       </c>
@@ -25614,10 +25701,13 @@
         <v>7600</v>
       </c>
       <c r="JH37" s="11">
+        <v>8400</v>
+      </c>
+      <c r="JI37" s="11">
         <v>8300</v>
       </c>
     </row>
-    <row r="38" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>38</v>
       </c>
@@ -26418,10 +26508,13 @@
         <v>12500</v>
       </c>
       <c r="JH38" s="11">
-        <v>12800</v>
+        <v>13000</v>
+      </c>
+      <c r="JI38" s="11">
+        <v>12900</v>
       </c>
     </row>
-    <row r="39" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>39</v>
       </c>
@@ -27224,8 +27317,11 @@
       <c r="JH39" s="11">
         <v>4600</v>
       </c>
+      <c r="JI39" s="11">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="40" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>40</v>
       </c>
@@ -28028,8 +28124,11 @@
       <c r="JH40" s="11">
         <v>32400</v>
       </c>
+      <c r="JI40" s="11">
+        <v>33200</v>
+      </c>
     </row>
-    <row r="41" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>41</v>
       </c>
@@ -28832,8 +28931,11 @@
       <c r="JH41" s="11">
         <v>5400</v>
       </c>
+      <c r="JI41" s="11">
+        <v>5300</v>
+      </c>
     </row>
-    <row r="42" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>43</v>
       </c>
@@ -29636,8 +29738,11 @@
       <c r="JH42" s="11">
         <v>4100</v>
       </c>
+      <c r="JI42" s="11">
+        <v>4100</v>
+      </c>
     </row>
-    <row r="43" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>44</v>
       </c>
@@ -30440,8 +30545,11 @@
       <c r="JH43" s="11">
         <v>27000</v>
       </c>
+      <c r="JI43" s="11">
+        <v>27900</v>
+      </c>
     </row>
-    <row r="44" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>45</v>
       </c>
@@ -31244,8 +31352,11 @@
       <c r="JH44" s="11">
         <v>5200</v>
       </c>
+      <c r="JI44" s="11">
+        <v>5400</v>
+      </c>
     </row>
-    <row r="45" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>46</v>
       </c>
@@ -32048,8 +32159,11 @@
       <c r="JH45" s="11">
         <v>1100</v>
       </c>
+      <c r="JI45" s="11">
+        <v>1300</v>
+      </c>
     </row>
-    <row r="46" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>47</v>
       </c>
@@ -32852,8 +32966,11 @@
       <c r="JH46" s="11">
         <v>4100</v>
       </c>
+      <c r="JI46" s="11">
+        <v>4100</v>
+      </c>
     </row>
-    <row r="47" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>48</v>
       </c>
@@ -33656,8 +33773,11 @@
       <c r="JH47" s="11">
         <v>21800</v>
       </c>
+      <c r="JI47" s="11">
+        <v>22500</v>
+      </c>
     </row>
-    <row r="48" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>49</v>
       </c>
@@ -34460,8 +34580,11 @@
       <c r="JH48" s="11">
         <v>10800</v>
       </c>
+      <c r="JI48" s="11">
+        <v>11700</v>
+      </c>
     </row>
-    <row r="49" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>50</v>
       </c>
@@ -35264,8 +35387,11 @@
       <c r="JH49" s="11">
         <v>11000</v>
       </c>
+      <c r="JI49" s="11">
+        <v>10800</v>
+      </c>
     </row>
-    <row r="50" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>51</v>
       </c>
@@ -36068,8 +36194,11 @@
       <c r="JH50" s="11">
         <v>5400</v>
       </c>
+      <c r="JI50" s="11">
+        <v>5300</v>
+      </c>
     </row>
-    <row r="51" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>52</v>
       </c>
@@ -36872,8 +37001,11 @@
       <c r="JH51" s="11">
         <v>2000</v>
       </c>
+      <c r="JI51" s="11">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="52" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>53</v>
       </c>
@@ -37676,8 +37808,11 @@
       <c r="JH52" s="11">
         <v>3600</v>
       </c>
+      <c r="JI52" s="11">
+        <v>3500</v>
+      </c>
     </row>
-    <row r="54" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
         <v>128</v>
       </c>
@@ -37690,7 +37825,7 @@
       <c r="H54" s="17"/>
       <c r="I54" s="16"/>
     </row>
-    <row r="55" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>16</v>
       </c>
@@ -37703,7 +37838,7 @@
       <c r="H55" s="14"/>
       <c r="I55" s="18"/>
     </row>
-    <row r="56" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>129</v>
       </c>
@@ -37716,7 +37851,7 @@
       <c r="H56" s="14"/>
       <c r="I56" s="18"/>
     </row>
-    <row r="57" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>130</v>
       </c>
@@ -37729,7 +37864,7 @@
       <c r="H57" s="14"/>
       <c r="I57" s="18"/>
     </row>
-    <row r="58" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>131</v>
       </c>
@@ -37742,7 +37877,7 @@
       <c r="H58" s="14"/>
       <c r="I58" s="18"/>
     </row>
-    <row r="59" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>132</v>
       </c>
@@ -37755,7 +37890,7 @@
       <c r="H59" s="14"/>
       <c r="I59" s="18"/>
     </row>
-    <row r="60" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>133</v>
       </c>
@@ -37768,7 +37903,7 @@
       <c r="H60" s="14"/>
       <c r="I60" s="18"/>
     </row>
-    <row r="61" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
         <v>134</v>
       </c>

--- a/lowe/edd/data/SALI$HWS.xlsx
+++ b/lowe/edd/data/SALI$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1427,7 +1427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI61"/>
+  <dimension ref="A1:JJ61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1444,12 +1444,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1477,12 +1477,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1495,7 +1495,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2300,11 +2300,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3108,10 +3111,13 @@
         <v>227100</v>
       </c>
       <c r="JI9" s="11">
-        <v>225400</v>
+        <v>225100</v>
+      </c>
+      <c r="JJ9" s="11">
+        <v>222600</v>
       </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3917,8 +3923,11 @@
       <c r="JI10" s="11">
         <v>212600</v>
       </c>
+      <c r="JJ10" s="11">
+        <v>210300</v>
+      </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4722,10 +4731,13 @@
         <v>14600</v>
       </c>
       <c r="JI11" s="11">
-        <v>12800</v>
+        <v>12500</v>
+      </c>
+      <c r="JJ11" s="11">
+        <v>12300</v>
       </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5529,10 +5541,13 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="JI12" s="12">
-        <v>5.7000000000000002E-2</v>
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="JJ12" s="12">
+        <v>5.5E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6336,10 +6351,13 @@
         <v>211300</v>
       </c>
       <c r="JI13" s="11">
-        <v>209900</v>
+        <v>209800</v>
+      </c>
+      <c r="JJ13" s="11">
+        <v>206400</v>
       </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7145,8 +7163,11 @@
       <c r="JI14" s="11">
         <v>71800</v>
       </c>
+      <c r="JJ14" s="11">
+        <v>66000</v>
+      </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7950,10 +7971,13 @@
         <v>137700</v>
       </c>
       <c r="JI15" s="11">
-        <v>138100</v>
+        <v>138000</v>
+      </c>
+      <c r="JJ15" s="11">
+        <v>140400</v>
       </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8757,10 +8781,13 @@
         <v>105300</v>
       </c>
       <c r="JI16" s="11">
-        <v>104900</v>
+        <v>104700</v>
+      </c>
+      <c r="JJ16" s="11">
+        <v>106700</v>
       </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9564,10 +9591,13 @@
         <v>11700</v>
       </c>
       <c r="JI17" s="11">
-        <v>11700</v>
+        <v>11600</v>
+      </c>
+      <c r="JJ17" s="11">
+        <v>11600</v>
       </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10373,8 +10403,11 @@
       <c r="JI18" s="11">
         <v>7100</v>
       </c>
+      <c r="JJ18" s="11">
+        <v>7100</v>
+      </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11180,8 +11213,11 @@
       <c r="JI19" s="11">
         <v>300</v>
       </c>
+      <c r="JJ19" s="11">
+        <v>300</v>
+      </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -11987,8 +12023,11 @@
       <c r="JI20" s="11">
         <v>6800</v>
       </c>
+      <c r="JJ20" s="11">
+        <v>6800</v>
+      </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -12792,10 +12831,13 @@
         <v>4400</v>
       </c>
       <c r="JI21" s="11">
-        <v>4600</v>
+        <v>4500</v>
+      </c>
+      <c r="JJ21" s="11">
+        <v>4500</v>
       </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>18</v>
       </c>
@@ -13599,10 +13641,13 @@
         <v>3300</v>
       </c>
       <c r="JI22" s="11">
-        <v>3300</v>
+        <v>3400</v>
+      </c>
+      <c r="JJ22" s="11">
+        <v>3400</v>
       </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -14408,8 +14453,11 @@
       <c r="JI23" s="11">
         <v>126400</v>
       </c>
+      <c r="JJ23" s="11">
+        <v>128800</v>
+      </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -15213,10 +15261,13 @@
         <v>93600</v>
       </c>
       <c r="JI24" s="11">
-        <v>93200</v>
+        <v>93100</v>
+      </c>
+      <c r="JJ24" s="11">
+        <v>95100</v>
       </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -16022,8 +16073,11 @@
       <c r="JI25" s="11">
         <v>25000</v>
       </c>
+      <c r="JJ25" s="11">
+        <v>25100</v>
+      </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -16829,8 +16883,11 @@
       <c r="JI26" s="11">
         <v>5600</v>
       </c>
+      <c r="JJ26" s="11">
+        <v>5600</v>
+      </c>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -17636,8 +17693,11 @@
       <c r="JI27" s="11">
         <v>15500</v>
       </c>
+      <c r="JJ27" s="11">
+        <v>15500</v>
+      </c>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -18443,8 +18503,11 @@
       <c r="JI28" s="11">
         <v>4100</v>
       </c>
+      <c r="JJ28" s="11">
+        <v>4100</v>
+      </c>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -19250,8 +19313,11 @@
       <c r="JI29" s="11">
         <v>3900</v>
       </c>
+      <c r="JJ29" s="11">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -20057,8 +20123,11 @@
       <c r="JI30" s="11">
         <v>900</v>
       </c>
+      <c r="JJ30" s="11">
+        <v>900</v>
+      </c>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -20864,8 +20933,11 @@
       <c r="JI31" s="11">
         <v>4000</v>
       </c>
+      <c r="JJ31" s="11">
+        <v>4200</v>
+      </c>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -21671,8 +21743,11 @@
       <c r="JI32" s="11">
         <v>15500</v>
       </c>
+      <c r="JJ32" s="11">
+        <v>16200</v>
+      </c>
     </row>
-    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -22478,8 +22553,11 @@
       <c r="JI33" s="11">
         <v>20300</v>
       </c>
+      <c r="JJ33" s="11">
+        <v>20600</v>
+      </c>
     </row>
-    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -23285,8 +23363,11 @@
       <c r="JI34" s="11">
         <v>18000</v>
       </c>
+      <c r="JJ34" s="11">
+        <v>18300</v>
+      </c>
     </row>
-    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -24090,10 +24171,13 @@
         <v>23200</v>
       </c>
       <c r="JI35" s="11">
-        <v>23000</v>
+        <v>22900</v>
+      </c>
+      <c r="JJ35" s="11">
+        <v>23600</v>
       </c>
     </row>
-    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>36</v>
       </c>
@@ -24899,8 +24983,11 @@
       <c r="JI36" s="11">
         <v>21200</v>
       </c>
+      <c r="JJ36" s="11">
+        <v>22000</v>
+      </c>
     </row>
-    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>37</v>
       </c>
@@ -25704,10 +25791,13 @@
         <v>8400</v>
       </c>
       <c r="JI37" s="11">
-        <v>8300</v>
+        <v>8200</v>
+      </c>
+      <c r="JJ37" s="11">
+        <v>8500</v>
       </c>
     </row>
-    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>38</v>
       </c>
@@ -26511,10 +26601,13 @@
         <v>13000</v>
       </c>
       <c r="JI38" s="11">
-        <v>12900</v>
+        <v>13000</v>
+      </c>
+      <c r="JJ38" s="11">
+        <v>13500</v>
       </c>
     </row>
-    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>39</v>
       </c>
@@ -27320,8 +27413,11 @@
       <c r="JI39" s="11">
         <v>4500</v>
       </c>
+      <c r="JJ39" s="11">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>40</v>
       </c>
@@ -28125,10 +28221,13 @@
         <v>32400</v>
       </c>
       <c r="JI40" s="11">
-        <v>33200</v>
+        <v>33300</v>
+      </c>
+      <c r="JJ40" s="11">
+        <v>33700</v>
       </c>
     </row>
-    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>41</v>
       </c>
@@ -28932,10 +29031,13 @@
         <v>5400</v>
       </c>
       <c r="JI41" s="11">
-        <v>5300</v>
+        <v>5400</v>
+      </c>
+      <c r="JJ41" s="11">
+        <v>5500</v>
       </c>
     </row>
-    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>43</v>
       </c>
@@ -29741,8 +29843,11 @@
       <c r="JI42" s="11">
         <v>4100</v>
       </c>
+      <c r="JJ42" s="11">
+        <v>4100</v>
+      </c>
     </row>
-    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>44</v>
       </c>
@@ -30548,8 +30653,11 @@
       <c r="JI43" s="11">
         <v>27900</v>
       </c>
+      <c r="JJ43" s="11">
+        <v>28200</v>
+      </c>
     </row>
-    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>45</v>
       </c>
@@ -31355,8 +31463,11 @@
       <c r="JI44" s="11">
         <v>5400</v>
       </c>
+      <c r="JJ44" s="11">
+        <v>5500</v>
+      </c>
     </row>
-    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>46</v>
       </c>
@@ -32162,8 +32273,11 @@
       <c r="JI45" s="11">
         <v>1300</v>
       </c>
+      <c r="JJ45" s="11">
+        <v>1400</v>
+      </c>
     </row>
-    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>47</v>
       </c>
@@ -32969,8 +33083,11 @@
       <c r="JI46" s="11">
         <v>4100</v>
       </c>
+      <c r="JJ46" s="11">
+        <v>4100</v>
+      </c>
     </row>
-    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>48</v>
       </c>
@@ -33776,8 +33893,11 @@
       <c r="JI47" s="11">
         <v>22500</v>
       </c>
+      <c r="JJ47" s="11">
+        <v>22700</v>
+      </c>
     </row>
-    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>49</v>
       </c>
@@ -34583,8 +34703,11 @@
       <c r="JI48" s="11">
         <v>11700</v>
       </c>
+      <c r="JJ48" s="11">
+        <v>12000</v>
+      </c>
     </row>
-    <row r="49" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>50</v>
       </c>
@@ -35390,8 +35513,11 @@
       <c r="JI49" s="11">
         <v>10800</v>
       </c>
+      <c r="JJ49" s="11">
+        <v>10700</v>
+      </c>
     </row>
-    <row r="50" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>51</v>
       </c>
@@ -36195,10 +36321,13 @@
         <v>5400</v>
       </c>
       <c r="JI50" s="11">
-        <v>5300</v>
+        <v>5200</v>
+      </c>
+      <c r="JJ50" s="11">
+        <v>5000</v>
       </c>
     </row>
-    <row r="51" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>52</v>
       </c>
@@ -37004,8 +37133,11 @@
       <c r="JI51" s="11">
         <v>2000</v>
       </c>
+      <c r="JJ51" s="11">
+        <v>2100</v>
+      </c>
     </row>
-    <row r="52" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>53</v>
       </c>
@@ -37809,10 +37941,13 @@
         <v>3600</v>
       </c>
       <c r="JI52" s="11">
-        <v>3500</v>
+        <v>3600</v>
+      </c>
+      <c r="JJ52" s="11">
+        <v>3600</v>
       </c>
     </row>
-    <row r="54" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
         <v>128</v>
       </c>
@@ -37825,7 +37960,7 @@
       <c r="H54" s="17"/>
       <c r="I54" s="16"/>
     </row>
-    <row r="55" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>16</v>
       </c>
@@ -37838,7 +37973,7 @@
       <c r="H55" s="14"/>
       <c r="I55" s="18"/>
     </row>
-    <row r="56" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>129</v>
       </c>
@@ -37851,7 +37986,7 @@
       <c r="H56" s="14"/>
       <c r="I56" s="18"/>
     </row>
-    <row r="57" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>130</v>
       </c>
@@ -37864,7 +37999,7 @@
       <c r="H57" s="14"/>
       <c r="I57" s="18"/>
     </row>
-    <row r="58" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>131</v>
       </c>
@@ -37877,7 +38012,7 @@
       <c r="H58" s="14"/>
       <c r="I58" s="18"/>
     </row>
-    <row r="59" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>132</v>
       </c>
@@ -37890,7 +38025,7 @@
       <c r="H59" s="14"/>
       <c r="I59" s="18"/>
     </row>
-    <row r="60" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>133</v>
       </c>
@@ -37903,7 +38038,7 @@
       <c r="H60" s="14"/>
       <c r="I60" s="18"/>
     </row>
-    <row r="61" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
         <v>134</v>
       </c>

--- a/lowe/edd/data/SALI$HWS.xlsx
+++ b/lowe/edd/data/SALI$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -287,13 +287,13 @@
     <t>70-720000</t>
   </si>
   <si>
-    <t xml:space="preserve">          Accommodation &amp; Food Services</t>
+    <t xml:space="preserve">        Accommodation &amp; Food Services</t>
   </si>
   <si>
     <t>70-721000</t>
   </si>
   <si>
-    <t xml:space="preserve">            Accommodation</t>
+    <t xml:space="preserve">          Accommodation</t>
   </si>
   <si>
     <t>70-722000</t>
@@ -1427,7 +1427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ61"/>
+  <dimension ref="A1:JL61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1444,12 +1444,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1477,12 +1477,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1495,7 +1495,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2303,11 +2303,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3114,10 +3120,16 @@
         <v>225100</v>
       </c>
       <c r="JJ9" s="11">
-        <v>222600</v>
+        <v>222300</v>
+      </c>
+      <c r="JK9" s="11">
+        <v>217700</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>208400</v>
       </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3924,10 +3936,16 @@
         <v>212600</v>
       </c>
       <c r="JJ10" s="11">
-        <v>210300</v>
+        <v>210000</v>
+      </c>
+      <c r="JK10" s="11">
+        <v>205700</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>193500</v>
       </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4736,8 +4754,14 @@
       <c r="JJ11" s="11">
         <v>12300</v>
       </c>
+      <c r="JK11" s="11">
+        <v>12000</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>14900</v>
+      </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5546,8 +5570,14 @@
       <c r="JJ12" s="12">
         <v>5.5E-2</v>
       </c>
+      <c r="JK12" s="12">
+        <v>5.5E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>7.1999999999999995E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6354,10 +6384,16 @@
         <v>209800</v>
       </c>
       <c r="JJ13" s="11">
-        <v>206400</v>
+        <v>206200</v>
+      </c>
+      <c r="JK13" s="11">
+        <v>198400</v>
+      </c>
+      <c r="JL13" s="11">
+        <v>182800</v>
       </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7166,8 +7202,14 @@
       <c r="JJ14" s="11">
         <v>66000</v>
       </c>
+      <c r="JK14" s="11">
+        <v>57400</v>
+      </c>
+      <c r="JL14" s="11">
+        <v>41800</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7974,10 +8016,16 @@
         <v>138000</v>
       </c>
       <c r="JJ15" s="11">
-        <v>140400</v>
+        <v>140200</v>
+      </c>
+      <c r="JK15" s="11">
+        <v>141000</v>
+      </c>
+      <c r="JL15" s="11">
+        <v>141000</v>
       </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8786,8 +8834,14 @@
       <c r="JJ16" s="11">
         <v>106700</v>
       </c>
+      <c r="JK16" s="11">
+        <v>107200</v>
+      </c>
+      <c r="JL16" s="11">
+        <v>107400</v>
+      </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9596,8 +9650,14 @@
       <c r="JJ17" s="11">
         <v>11600</v>
       </c>
+      <c r="JK17" s="11">
+        <v>11700</v>
+      </c>
+      <c r="JL17" s="11">
+        <v>11500</v>
+      </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10404,10 +10464,16 @@
         <v>7100</v>
       </c>
       <c r="JJ18" s="11">
+        <v>7200</v>
+      </c>
+      <c r="JK18" s="11">
+        <v>7200</v>
+      </c>
+      <c r="JL18" s="11">
         <v>7100</v>
       </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11216,8 +11282,14 @@
       <c r="JJ19" s="11">
         <v>300</v>
       </c>
+      <c r="JK19" s="11">
+        <v>300</v>
+      </c>
+      <c r="JL19" s="11">
+        <v>300</v>
+      </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12024,10 +12096,16 @@
         <v>6800</v>
       </c>
       <c r="JJ20" s="11">
+        <v>6900</v>
+      </c>
+      <c r="JK20" s="11">
+        <v>6900</v>
+      </c>
+      <c r="JL20" s="11">
         <v>6800</v>
       </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -12834,10 +12912,16 @@
         <v>4500</v>
       </c>
       <c r="JJ21" s="11">
+        <v>4400</v>
+      </c>
+      <c r="JK21" s="11">
         <v>4500</v>
       </c>
+      <c r="JL21" s="11">
+        <v>4400</v>
+      </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>18</v>
       </c>
@@ -13646,8 +13730,14 @@
       <c r="JJ22" s="11">
         <v>3400</v>
       </c>
+      <c r="JK22" s="11">
+        <v>3400</v>
+      </c>
+      <c r="JL22" s="11">
+        <v>3400</v>
+      </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -14454,10 +14544,16 @@
         <v>126400</v>
       </c>
       <c r="JJ23" s="11">
-        <v>128800</v>
+        <v>128600</v>
+      </c>
+      <c r="JK23" s="11">
+        <v>129300</v>
+      </c>
+      <c r="JL23" s="11">
+        <v>129500</v>
       </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -15266,8 +15362,14 @@
       <c r="JJ24" s="11">
         <v>95100</v>
       </c>
+      <c r="JK24" s="11">
+        <v>95500</v>
+      </c>
+      <c r="JL24" s="11">
+        <v>95900</v>
+      </c>
     </row>
-    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -16074,10 +16176,16 @@
         <v>25000</v>
       </c>
       <c r="JJ25" s="11">
-        <v>25100</v>
+        <v>25400</v>
+      </c>
+      <c r="JK25" s="11">
+        <v>26000</v>
+      </c>
+      <c r="JL25" s="11">
+        <v>25900</v>
       </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -16886,8 +16994,14 @@
       <c r="JJ26" s="11">
         <v>5600</v>
       </c>
+      <c r="JK26" s="11">
+        <v>5600</v>
+      </c>
+      <c r="JL26" s="11">
+        <v>5600</v>
+      </c>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -17694,10 +17808,16 @@
         <v>15500</v>
       </c>
       <c r="JJ27" s="11">
-        <v>15500</v>
+        <v>15800</v>
+      </c>
+      <c r="JK27" s="11">
+        <v>16400</v>
+      </c>
+      <c r="JL27" s="11">
+        <v>16200</v>
       </c>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -18506,8 +18626,14 @@
       <c r="JJ28" s="11">
         <v>4100</v>
       </c>
+      <c r="JK28" s="11">
+        <v>4200</v>
+      </c>
+      <c r="JL28" s="11">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -19316,8 +19442,14 @@
       <c r="JJ29" s="11">
         <v>4000</v>
       </c>
+      <c r="JK29" s="11">
+        <v>4000</v>
+      </c>
+      <c r="JL29" s="11">
+        <v>4100</v>
+      </c>
     </row>
-    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -20126,8 +20258,14 @@
       <c r="JJ30" s="11">
         <v>900</v>
       </c>
+      <c r="JK30" s="11">
+        <v>900</v>
+      </c>
+      <c r="JL30" s="11">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -20934,10 +21072,16 @@
         <v>4000</v>
       </c>
       <c r="JJ31" s="11">
+        <v>4100</v>
+      </c>
+      <c r="JK31" s="11">
+        <v>4100</v>
+      </c>
+      <c r="JL31" s="11">
         <v>4200</v>
       </c>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -21746,8 +21890,14 @@
       <c r="JJ32" s="11">
         <v>16200</v>
       </c>
+      <c r="JK32" s="11">
+        <v>15900</v>
+      </c>
+      <c r="JL32" s="11">
+        <v>15900</v>
+      </c>
     </row>
-    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -22556,8 +22706,14 @@
       <c r="JJ33" s="11">
         <v>20600</v>
       </c>
+      <c r="JK33" s="11">
+        <v>20700</v>
+      </c>
+      <c r="JL33" s="11">
+        <v>20800</v>
+      </c>
     </row>
-    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -23366,8 +23522,14 @@
       <c r="JJ34" s="11">
         <v>18300</v>
       </c>
+      <c r="JK34" s="11">
+        <v>18400</v>
+      </c>
+      <c r="JL34" s="11">
+        <v>18400</v>
+      </c>
     </row>
-    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -24174,10 +24336,16 @@
         <v>22900</v>
       </c>
       <c r="JJ35" s="11">
+        <v>23300</v>
+      </c>
+      <c r="JK35" s="11">
+        <v>23300</v>
+      </c>
+      <c r="JL35" s="11">
         <v>23600</v>
       </c>
     </row>
-    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>36</v>
       </c>
@@ -24984,10 +25152,16 @@
         <v>21200</v>
       </c>
       <c r="JJ36" s="11">
+        <v>21700</v>
+      </c>
+      <c r="JK36" s="11">
+        <v>21700</v>
+      </c>
+      <c r="JL36" s="11">
         <v>22000</v>
       </c>
     </row>
-    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>37</v>
       </c>
@@ -25794,10 +25968,16 @@
         <v>8200</v>
       </c>
       <c r="JJ37" s="11">
+        <v>8400</v>
+      </c>
+      <c r="JK37" s="11">
+        <v>8300</v>
+      </c>
+      <c r="JL37" s="11">
         <v>8500</v>
       </c>
     </row>
-    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>38</v>
       </c>
@@ -26604,10 +26784,16 @@
         <v>13000</v>
       </c>
       <c r="JJ38" s="11">
+        <v>13300</v>
+      </c>
+      <c r="JK38" s="11">
+        <v>13400</v>
+      </c>
+      <c r="JL38" s="11">
         <v>13500</v>
       </c>
     </row>
-    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>39</v>
       </c>
@@ -27414,10 +27600,16 @@
         <v>4500</v>
       </c>
       <c r="JJ39" s="11">
+        <v>4600</v>
+      </c>
+      <c r="JK39" s="11">
+        <v>4600</v>
+      </c>
+      <c r="JL39" s="11">
         <v>4500</v>
       </c>
     </row>
-    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>40</v>
       </c>
@@ -28224,10 +28416,16 @@
         <v>33300</v>
       </c>
       <c r="JJ40" s="11">
-        <v>33700</v>
+        <v>33500</v>
+      </c>
+      <c r="JK40" s="11">
+        <v>33800</v>
+      </c>
+      <c r="JL40" s="11">
+        <v>33600</v>
       </c>
     </row>
-    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>41</v>
       </c>
@@ -29034,10 +29232,16 @@
         <v>5400</v>
       </c>
       <c r="JJ41" s="11">
-        <v>5500</v>
+        <v>5400</v>
+      </c>
+      <c r="JK41" s="11">
+        <v>5400</v>
+      </c>
+      <c r="JL41" s="11">
+        <v>5400</v>
       </c>
     </row>
-    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>43</v>
       </c>
@@ -29846,8 +30050,14 @@
       <c r="JJ42" s="11">
         <v>4100</v>
       </c>
+      <c r="JK42" s="11">
+        <v>4100</v>
+      </c>
+      <c r="JL42" s="11">
+        <v>4100</v>
+      </c>
     </row>
-    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>44</v>
       </c>
@@ -30654,10 +30864,16 @@
         <v>27900</v>
       </c>
       <c r="JJ43" s="11">
+        <v>28100</v>
+      </c>
+      <c r="JK43" s="11">
+        <v>28400</v>
+      </c>
+      <c r="JL43" s="11">
         <v>28200</v>
       </c>
     </row>
-    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>45</v>
       </c>
@@ -31466,8 +31682,14 @@
       <c r="JJ44" s="11">
         <v>5500</v>
       </c>
+      <c r="JK44" s="11">
+        <v>5500</v>
+      </c>
+      <c r="JL44" s="11">
+        <v>5400</v>
+      </c>
     </row>
-    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>46</v>
       </c>
@@ -32276,8 +32498,14 @@
       <c r="JJ45" s="11">
         <v>1400</v>
       </c>
+      <c r="JK45" s="11">
+        <v>1500</v>
+      </c>
+      <c r="JL45" s="11">
+        <v>1500</v>
+      </c>
     </row>
-    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>47</v>
       </c>
@@ -33086,8 +33314,14 @@
       <c r="JJ46" s="11">
         <v>4100</v>
       </c>
+      <c r="JK46" s="11">
+        <v>4000</v>
+      </c>
+      <c r="JL46" s="11">
+        <v>3900</v>
+      </c>
     </row>
-    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>48</v>
       </c>
@@ -33894,10 +34128,16 @@
         <v>22500</v>
       </c>
       <c r="JJ47" s="11">
-        <v>22700</v>
+        <v>22600</v>
+      </c>
+      <c r="JK47" s="11">
+        <v>22900</v>
+      </c>
+      <c r="JL47" s="11">
+        <v>22800</v>
       </c>
     </row>
-    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>49</v>
       </c>
@@ -34706,8 +34946,14 @@
       <c r="JJ48" s="11">
         <v>12000</v>
       </c>
+      <c r="JK48" s="11">
+        <v>12200</v>
+      </c>
+      <c r="JL48" s="11">
+        <v>12300</v>
+      </c>
     </row>
-    <row r="49" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>50</v>
       </c>
@@ -35514,10 +35760,16 @@
         <v>10800</v>
       </c>
       <c r="JJ49" s="11">
+        <v>10600</v>
+      </c>
+      <c r="JK49" s="11">
         <v>10700</v>
       </c>
+      <c r="JL49" s="11">
+        <v>10500</v>
+      </c>
     </row>
-    <row r="50" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>51</v>
       </c>
@@ -36324,10 +36576,16 @@
         <v>5200</v>
       </c>
       <c r="JJ50" s="11">
+        <v>4900</v>
+      </c>
+      <c r="JK50" s="11">
+        <v>5300</v>
+      </c>
+      <c r="JL50" s="11">
         <v>5000</v>
       </c>
     </row>
-    <row r="51" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>52</v>
       </c>
@@ -37136,8 +37394,14 @@
       <c r="JJ51" s="11">
         <v>2100</v>
       </c>
+      <c r="JK51" s="11">
+        <v>2100</v>
+      </c>
+      <c r="JL51" s="11">
+        <v>2100</v>
+      </c>
     </row>
-    <row r="52" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>53</v>
       </c>
@@ -37946,8 +38210,14 @@
       <c r="JJ52" s="11">
         <v>3600</v>
       </c>
+      <c r="JK52" s="11">
+        <v>3300</v>
+      </c>
+      <c r="JL52" s="11">
+        <v>3400</v>
+      </c>
     </row>
-    <row r="54" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
         <v>128</v>
       </c>
@@ -37960,7 +38230,7 @@
       <c r="H54" s="17"/>
       <c r="I54" s="16"/>
     </row>
-    <row r="55" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>16</v>
       </c>
@@ -37973,7 +38243,7 @@
       <c r="H55" s="14"/>
       <c r="I55" s="18"/>
     </row>
-    <row r="56" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>129</v>
       </c>
@@ -37986,7 +38256,7 @@
       <c r="H56" s="14"/>
       <c r="I56" s="18"/>
     </row>
-    <row r="57" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>130</v>
       </c>
@@ -37999,7 +38269,7 @@
       <c r="H57" s="14"/>
       <c r="I57" s="18"/>
     </row>
-    <row r="58" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>131</v>
       </c>
@@ -38012,7 +38282,7 @@
       <c r="H58" s="14"/>
       <c r="I58" s="18"/>
     </row>
-    <row r="59" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>132</v>
       </c>
@@ -38025,7 +38295,7 @@
       <c r="H59" s="14"/>
       <c r="I59" s="18"/>
     </row>
-    <row r="60" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>133</v>
       </c>
@@ -38038,7 +38308,7 @@
       <c r="H60" s="14"/>
       <c r="I60" s="18"/>
     </row>
-    <row r="61" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
         <v>134</v>
       </c>
